--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl21b-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl21b-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Ccl21b</t>
+  </si>
+  <si>
+    <t>Cxcr3</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ccl21b</t>
-  </si>
-  <si>
-    <t>Cxcr3</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.08844</v>
+      </c>
+      <c r="H2">
+        <v>0.26532</v>
+      </c>
+      <c r="I2">
+        <v>0.939488472392877</v>
+      </c>
+      <c r="J2">
+        <v>0.9394884723928769</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.03355466666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.100664</v>
-      </c>
-      <c r="I2">
-        <v>0.1494171833323191</v>
-      </c>
-      <c r="J2">
-        <v>0.1494171833323191</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N2">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O2">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P2">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q2">
-        <v>0.02704170586666667</v>
+        <v>0.005764077</v>
       </c>
       <c r="R2">
-        <v>0.2433753528</v>
+        <v>0.051876693</v>
       </c>
       <c r="S2">
-        <v>0.01412209974800994</v>
+        <v>0.008834965057345011</v>
       </c>
       <c r="T2">
-        <v>0.01412209974800995</v>
+        <v>0.008834965057345011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.03355466666666667</v>
+        <v>0.08844</v>
       </c>
       <c r="H3">
-        <v>0.100664</v>
+        <v>0.26532</v>
       </c>
       <c r="I3">
-        <v>0.1494171833323191</v>
+        <v>0.939488472392877</v>
       </c>
       <c r="J3">
-        <v>0.1494171833323191</v>
+        <v>0.9394884723928769</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N3">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P3">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q3">
-        <v>0.1793520197902223</v>
+        <v>0.5941854076399999</v>
       </c>
       <c r="R3">
-        <v>1.614168178112</v>
+        <v>5.34766866876</v>
       </c>
       <c r="S3">
-        <v>0.09366373282710307</v>
+        <v>0.9107455216305578</v>
       </c>
       <c r="T3">
-        <v>0.09366373282710307</v>
+        <v>0.9107455216305578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.08844</v>
+      </c>
+      <c r="H4">
+        <v>0.26532</v>
+      </c>
+      <c r="I4">
+        <v>0.939488472392877</v>
+      </c>
+      <c r="J4">
+        <v>0.9394884723928769</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.03355466666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.100664</v>
-      </c>
-      <c r="I4">
-        <v>0.1494171833323191</v>
-      </c>
-      <c r="J4">
-        <v>0.1494171833323191</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N4">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O4">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P4">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q4">
-        <v>0.07971780132533333</v>
+        <v>0.0129882984</v>
       </c>
       <c r="R4">
-        <v>0.717460211928</v>
+        <v>0.1168946856</v>
       </c>
       <c r="S4">
-        <v>0.04163135075720605</v>
+        <v>0.01990798570497413</v>
       </c>
       <c r="T4">
-        <v>0.04163135075720606</v>
+        <v>0.01990798570497412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +711,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.08844</v>
+        <v>0.005696333333333334</v>
       </c>
       <c r="H5">
-        <v>0.26532</v>
+        <v>0.017089</v>
       </c>
       <c r="I5">
-        <v>0.3938187145526791</v>
+        <v>0.06051152760712301</v>
       </c>
       <c r="J5">
-        <v>0.3938187145526791</v>
+        <v>0.060511527607123</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.8058999999999999</v>
+        <v>0.065175</v>
       </c>
       <c r="N5">
-        <v>2.4177</v>
+        <v>0.195525</v>
       </c>
       <c r="O5">
-        <v>0.09451456273674329</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="P5">
-        <v>0.0945145627367433</v>
+        <v>0.009404016458916581</v>
       </c>
       <c r="Q5">
-        <v>0.071273796</v>
+        <v>0.000371258525</v>
       </c>
       <c r="R5">
-        <v>0.6414641639999999</v>
+        <v>0.003341326725</v>
       </c>
       <c r="S5">
-        <v>0.03722160360349279</v>
+        <v>0.0005690514015715698</v>
       </c>
       <c r="T5">
-        <v>0.0372216036034928</v>
+        <v>0.0005690514015715698</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +773,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.08844</v>
+        <v>0.005696333333333334</v>
       </c>
       <c r="H6">
-        <v>0.26532</v>
+        <v>0.017089</v>
       </c>
       <c r="I6">
-        <v>0.3938187145526791</v>
+        <v>0.06051152760712301</v>
       </c>
       <c r="J6">
-        <v>0.3938187145526791</v>
+        <v>0.060511527607123</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.345069333333334</v>
+        <v>6.718514333333332</v>
       </c>
       <c r="N6">
-        <v>16.035208</v>
+        <v>20.155543</v>
       </c>
       <c r="O6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="P6">
-        <v>0.6268605172323812</v>
+        <v>0.969405744075698</v>
       </c>
       <c r="Q6">
-        <v>0.47271793184</v>
+        <v>0.03827089714744444</v>
       </c>
       <c r="R6">
-        <v>4.25446138656</v>
+        <v>0.344438074327</v>
       </c>
       <c r="S6">
-        <v>0.2468694031002839</v>
+        <v>0.05866022244514022</v>
       </c>
       <c r="T6">
-        <v>0.2468694031002839</v>
+        <v>0.05866022244514021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,433 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08844</v>
+        <v>0.005696333333333334</v>
       </c>
       <c r="H7">
-        <v>0.26532</v>
+        <v>0.017089</v>
       </c>
       <c r="I7">
-        <v>0.3938187145526791</v>
+        <v>0.06051152760712301</v>
       </c>
       <c r="J7">
-        <v>0.3938187145526791</v>
+        <v>0.060511527607123</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.375759</v>
+        <v>0.14686</v>
       </c>
       <c r="N7">
-        <v>7.127277</v>
+        <v>0.44058</v>
       </c>
       <c r="O7">
-        <v>0.2786249200308754</v>
+        <v>0.02119023946538534</v>
       </c>
       <c r="P7">
-        <v>0.2786249200308755</v>
+        <v>0.02119023946538533</v>
       </c>
       <c r="Q7">
-        <v>0.21011212596</v>
+        <v>0.0008365635133333334</v>
       </c>
       <c r="R7">
-        <v>1.89100913364</v>
+        <v>0.00752907162</v>
       </c>
       <c r="S7">
-        <v>0.1097277078489024</v>
+        <v>0.001282253760411212</v>
       </c>
       <c r="T7">
-        <v>0.1097277078489024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.063403</v>
-      </c>
-      <c r="H8">
-        <v>0.190209</v>
-      </c>
-      <c r="I8">
-        <v>0.2823302573358606</v>
-      </c>
-      <c r="J8">
-        <v>0.2823302573358607</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.8058999999999999</v>
-      </c>
-      <c r="N8">
-        <v>2.4177</v>
-      </c>
-      <c r="O8">
-        <v>0.09451456273674329</v>
-      </c>
-      <c r="P8">
-        <v>0.0945145627367433</v>
-      </c>
-      <c r="Q8">
-        <v>0.0510964777</v>
-      </c>
-      <c r="R8">
-        <v>0.4598682993000001</v>
-      </c>
-      <c r="S8">
-        <v>0.02668432081945108</v>
-      </c>
-      <c r="T8">
-        <v>0.02668432081945109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.063403</v>
-      </c>
-      <c r="H9">
-        <v>0.190209</v>
-      </c>
-      <c r="I9">
-        <v>0.2823302573358606</v>
-      </c>
-      <c r="J9">
-        <v>0.2823302573358607</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.345069333333334</v>
-      </c>
-      <c r="N9">
-        <v>16.035208</v>
-      </c>
-      <c r="O9">
-        <v>0.6268605172323812</v>
-      </c>
-      <c r="P9">
-        <v>0.6268605172323812</v>
-      </c>
-      <c r="Q9">
-        <v>0.3388934309413334</v>
-      </c>
-      <c r="R9">
-        <v>3.050040878472001</v>
-      </c>
-      <c r="S9">
-        <v>0.1769816911439089</v>
-      </c>
-      <c r="T9">
-        <v>0.1769816911439089</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.063403</v>
-      </c>
-      <c r="H10">
-        <v>0.190209</v>
-      </c>
-      <c r="I10">
-        <v>0.2823302573358606</v>
-      </c>
-      <c r="J10">
-        <v>0.2823302573358607</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>2.375759</v>
-      </c>
-      <c r="N10">
-        <v>7.127277</v>
-      </c>
-      <c r="O10">
-        <v>0.2786249200308754</v>
-      </c>
-      <c r="P10">
-        <v>0.2786249200308755</v>
-      </c>
-      <c r="Q10">
-        <v>0.150630247877</v>
-      </c>
-      <c r="R10">
-        <v>1.355672230893</v>
-      </c>
-      <c r="S10">
-        <v>0.07866424537250065</v>
-      </c>
-      <c r="T10">
-        <v>0.07866424537250068</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03917266666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.117518</v>
-      </c>
-      <c r="I11">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="J11">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.8058999999999999</v>
-      </c>
-      <c r="N11">
-        <v>2.4177</v>
-      </c>
-      <c r="O11">
-        <v>0.09451456273674329</v>
-      </c>
-      <c r="P11">
-        <v>0.0945145627367433</v>
-      </c>
-      <c r="Q11">
-        <v>0.03156925206666666</v>
-      </c>
-      <c r="R11">
-        <v>0.2841232686</v>
-      </c>
-      <c r="S11">
-        <v>0.01648653856578948</v>
-      </c>
-      <c r="T11">
-        <v>0.01648653856578949</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03917266666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.117518</v>
-      </c>
-      <c r="I12">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="J12">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>5.345069333333334</v>
-      </c>
-      <c r="N12">
-        <v>16.035208</v>
-      </c>
-      <c r="O12">
-        <v>0.6268605172323812</v>
-      </c>
-      <c r="P12">
-        <v>0.6268605172323812</v>
-      </c>
-      <c r="Q12">
-        <v>0.2093806193048889</v>
-      </c>
-      <c r="R12">
-        <v>1.884425573744</v>
-      </c>
-      <c r="S12">
-        <v>0.1093456901610853</v>
-      </c>
-      <c r="T12">
-        <v>0.1093456901610854</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03917266666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.117518</v>
-      </c>
-      <c r="I13">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="J13">
-        <v>0.1744338447791412</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>2.375759</v>
-      </c>
-      <c r="N13">
-        <v>7.127277</v>
-      </c>
-      <c r="O13">
-        <v>0.2786249200308754</v>
-      </c>
-      <c r="P13">
-        <v>0.2786249200308755</v>
-      </c>
-      <c r="Q13">
-        <v>0.09306481538733334</v>
-      </c>
-      <c r="R13">
-        <v>0.8375833384860001</v>
-      </c>
-      <c r="S13">
-        <v>0.04860161605226635</v>
-      </c>
-      <c r="T13">
-        <v>0.04860161605226637</v>
+        <v>0.001282253760411212</v>
       </c>
     </row>
   </sheetData>
